--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1988.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1988.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.199057984576075</v>
+        <v>0.6248894929885864</v>
       </c>
       <c r="B1">
-        <v>2.209649443268332</v>
+        <v>0.759450376033783</v>
       </c>
       <c r="C1">
-        <v>8.246768929234777</v>
+        <v>1.04095983505249</v>
       </c>
       <c r="D1">
-        <v>2.62440881785167</v>
+        <v>3.27154016494751</v>
       </c>
       <c r="E1">
-        <v>1.187021636683852</v>
+        <v>6.345268249511719</v>
       </c>
     </row>
   </sheetData>
